--- a/logfc_Analysis/logfc_col_HC/meta_colgc_t1.xlsx
+++ b/logfc_Analysis/logfc_col_HC/meta_colgc_t1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_col_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9299BB48-7897-41AA-9D14-E1CEC3FB9F60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782F49D-1E10-4C3F-9752-BA912B23EFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6576" yWindow="3420" windowWidth="17280" windowHeight="8964" xr2:uid="{8265B0CC-A64B-46C3-9B88-8BF9CB23D164}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{8265B0CC-A64B-46C3-9B88-8BF9CB23D164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="376">
   <si>
     <t>TAIR</t>
   </si>
@@ -1132,6 +1132,46 @@
   </si>
   <si>
     <t>GO:0005886, GO:0016020, GO:0044464</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gogi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1495,15 +1535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188EDF0E-9AEF-4C01-97CC-E4EF8C63107A}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,19 +1554,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1537,19 +1580,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839520</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1560,19 +1606,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>837340</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1583,19 +1632,22 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>837791</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1606,19 +1658,22 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>837958</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1629,19 +1684,22 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>838349</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1652,19 +1710,22 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>839001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1675,19 +1736,22 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>839749</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1698,19 +1762,22 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>841164</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1721,19 +1788,22 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>841244</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1744,19 +1814,22 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>841472</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1767,19 +1840,22 @@
         <v>68</v>
       </c>
       <c r="D12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>842113</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1790,19 +1866,22 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>843468</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1813,19 +1892,22 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" t="s">
         <v>78</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>843512</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1836,19 +1918,22 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>843918</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1859,19 +1944,22 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>369</v>
+      </c>
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>815211</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1882,19 +1970,22 @@
         <v>92</v>
       </c>
       <c r="D17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17" t="s">
         <v>93</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>816289</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>94</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1905,19 +1996,22 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" t="s">
         <v>98</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>816310</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -1928,19 +2022,22 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" t="s">
         <v>102</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>816466</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
       <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1951,19 +2048,22 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" t="s">
         <v>106</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>816514</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>107</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1974,19 +2074,22 @@
         <v>111</v>
       </c>
       <c r="D21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" t="s">
         <v>112</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>817583</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>113</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -1997,19 +2100,22 @@
         <v>117</v>
       </c>
       <c r="D22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" t="s">
         <v>118</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>817851</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2020,19 +2126,22 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" t="s">
         <v>123</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>818416</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>124</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -2043,19 +2152,22 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>818915</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>130</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -2066,19 +2178,22 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E25" t="s">
         <v>135</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>821081</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -2089,19 +2204,22 @@
         <v>139</v>
       </c>
       <c r="D26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" t="s">
         <v>140</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>821079</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>141</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -2112,19 +2230,22 @@
         <v>145</v>
       </c>
       <c r="D27" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27" t="s">
         <v>146</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>819740</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>147</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>148</v>
       </c>
@@ -2135,19 +2256,22 @@
         <v>150</v>
       </c>
       <c r="D28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" t="s">
         <v>151</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>820201</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>152</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -2158,19 +2282,22 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" t="s">
         <v>156</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2745881</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>157</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -2181,16 +2308,19 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -2201,19 +2331,22 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" t="s">
         <v>165</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>821377</v>
       </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
       <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -2224,19 +2357,22 @@
         <v>169</v>
       </c>
       <c r="D32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E32" t="s">
         <v>170</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>821573</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>171</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -2247,19 +2383,22 @@
         <v>175</v>
       </c>
       <c r="D33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" t="s">
         <v>176</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>822024</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>177</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -2270,19 +2409,22 @@
         <v>181</v>
       </c>
       <c r="D34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34" t="s">
         <v>182</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>822375</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>183</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>185</v>
       </c>
@@ -2293,19 +2435,22 @@
         <v>187</v>
       </c>
       <c r="D35" t="s">
+        <v>369</v>
+      </c>
+      <c r="E35" t="s">
         <v>188</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>823559</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>189</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -2316,19 +2461,22 @@
         <v>193</v>
       </c>
       <c r="D36" t="s">
+        <v>369</v>
+      </c>
+      <c r="E36" t="s">
         <v>194</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>824294</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>195</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -2339,19 +2487,22 @@
         <v>198</v>
       </c>
       <c r="D37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" t="s">
         <v>199</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>824384</v>
       </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
       <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -2362,19 +2513,22 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" t="s">
         <v>203</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>824478</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>204</v>
       </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -2385,19 +2539,22 @@
         <v>207</v>
       </c>
       <c r="D39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E39" t="s">
         <v>208</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>824651</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>209</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -2408,19 +2565,22 @@
         <v>212</v>
       </c>
       <c r="D40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E40" t="s">
         <v>213</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>824863</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>214</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -2431,19 +2591,22 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" t="s">
         <v>218</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>825842</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>219</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -2454,19 +2617,22 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" t="s">
         <v>223</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>827153</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>224</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>226</v>
       </c>
@@ -2477,19 +2643,22 @@
         <v>228</v>
       </c>
       <c r="D43" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" t="s">
         <v>229</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>827328</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>230</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -2500,19 +2669,22 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
+        <v>374</v>
+      </c>
+      <c r="E44" t="s">
         <v>234</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>827637</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>235</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>236</v>
       </c>
@@ -2523,19 +2695,22 @@
         <v>238</v>
       </c>
       <c r="D45" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" t="s">
         <v>239</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>827690</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>240</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>242</v>
       </c>
@@ -2546,19 +2721,22 @@
         <v>244</v>
       </c>
       <c r="D46" t="s">
+        <v>368</v>
+      </c>
+      <c r="E46" t="s">
         <v>245</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>828716</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>246</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>247</v>
       </c>
@@ -2569,19 +2747,22 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47" t="s">
         <v>249</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>828782</v>
       </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
       <c r="G47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -2592,19 +2773,22 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" t="s">
         <v>252</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>828812</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>253</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -2615,19 +2799,22 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
+        <v>369</v>
+      </c>
+      <c r="E49" t="s">
         <v>257</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>828883</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>258</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -2638,19 +2825,22 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" t="s">
         <v>261</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>829007</v>
       </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
       <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>262</v>
       </c>
@@ -2661,19 +2851,22 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51" t="s">
         <v>264</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>829993</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>265</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -2684,19 +2877,22 @@
         <v>269</v>
       </c>
       <c r="D52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E52" t="s">
         <v>270</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>830160</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>271</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>273</v>
       </c>
@@ -2707,19 +2903,22 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
+        <v>371</v>
+      </c>
+      <c r="E53" t="s">
         <v>275</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>831904</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>276</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>277</v>
       </c>
@@ -2730,19 +2929,22 @@
         <v>279</v>
       </c>
       <c r="D54" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" t="s">
         <v>280</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>831809</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>281</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -2753,19 +2955,22 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
+        <v>371</v>
+      </c>
+      <c r="E55" t="s">
         <v>284</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>830485</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>286</v>
       </c>
@@ -2776,19 +2981,22 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56" t="s">
         <v>288</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>830785</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>289</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>290</v>
       </c>
@@ -2799,19 +3007,22 @@
         <v>292</v>
       </c>
       <c r="D57" t="s">
+        <v>375</v>
+      </c>
+      <c r="E57" t="s">
         <v>293</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>830984</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>296</v>
       </c>
@@ -2822,16 +3033,19 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
+        <v>371</v>
+      </c>
+      <c r="E58" t="s">
         <v>298</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>831112</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>300</v>
       </c>
@@ -2842,19 +3056,22 @@
         <v>302</v>
       </c>
       <c r="D59" t="s">
+        <v>369</v>
+      </c>
+      <c r="E59" t="s">
         <v>303</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>831171</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>304</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>306</v>
       </c>
@@ -2865,19 +3082,22 @@
         <v>308</v>
       </c>
       <c r="D60" t="s">
+        <v>371</v>
+      </c>
+      <c r="E60" t="s">
         <v>309</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>831510</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -2888,19 +3108,22 @@
         <v>314</v>
       </c>
       <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>831569</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>316</v>
       </c>
-      <c r="G61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>317</v>
       </c>
@@ -2911,19 +3134,22 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" t="s">
         <v>319</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>832340</v>
       </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
       <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>320</v>
       </c>
@@ -2934,19 +3160,22 @@
         <v>322</v>
       </c>
       <c r="D63" t="s">
+        <v>369</v>
+      </c>
+      <c r="E63" t="s">
         <v>323</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>833946</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>324</v>
       </c>
-      <c r="G63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>325</v>
       </c>
@@ -2957,19 +3186,22 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" t="s">
         <v>327</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>834433</v>
       </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
       <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -2980,19 +3212,22 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E65" t="s">
         <v>330</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>834798</v>
       </c>
-      <c r="F65" t="s">
-        <v>9</v>
-      </c>
       <c r="G65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>331</v>
       </c>
@@ -3003,19 +3238,22 @@
         <v>50</v>
       </c>
       <c r="D66" t="s">
+        <v>371</v>
+      </c>
+      <c r="E66" t="s">
         <v>333</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>835046</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>334</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>336</v>
       </c>
@@ -3026,19 +3264,22 @@
         <v>338</v>
       </c>
       <c r="D67" t="s">
+        <v>369</v>
+      </c>
+      <c r="E67" t="s">
         <v>339</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>835217</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>340</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>342</v>
       </c>
@@ -3049,16 +3290,19 @@
         <v>344</v>
       </c>
       <c r="D68" t="s">
+        <v>368</v>
+      </c>
+      <c r="E68" t="s">
         <v>345</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>835297</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>347</v>
       </c>
@@ -3069,19 +3313,22 @@
         <v>349</v>
       </c>
       <c r="D69" t="s">
+        <v>369</v>
+      </c>
+      <c r="E69" t="s">
         <v>350</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>835435</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>351</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>352</v>
       </c>
@@ -3092,19 +3339,22 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>368</v>
+      </c>
+      <c r="E70" t="s">
         <v>354</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>835804</v>
       </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
       <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>355</v>
       </c>
@@ -3115,19 +3365,22 @@
         <v>357</v>
       </c>
       <c r="D71" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" t="s">
         <v>358</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>835956</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>359</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -3138,15 +3391,18 @@
         <v>362</v>
       </c>
       <c r="D72" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" t="s">
         <v>363</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>836242</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>364</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>365</v>
       </c>
     </row>

--- a/logfc_Analysis/logfc_col_HC/meta_colgc_t1.xlsx
+++ b/logfc_Analysis/logfc_col_HC/meta_colgc_t1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_col_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782F49D-1E10-4C3F-9752-BA912B23EFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C856D00F-270B-4216-A3DD-0BDD1D5BF0D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{8265B0CC-A64B-46C3-9B88-8BF9CB23D164}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8265B0CC-A64B-46C3-9B88-8BF9CB23D164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="375">
   <si>
     <t>TAIR</t>
   </si>
@@ -1135,10 +1135,6 @@
   </si>
   <si>
     <t>Subcellular location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gogi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1538,7 +1534,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1580,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1606,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1632,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1658,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1684,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -1710,7 +1706,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1736,7 +1732,7 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -1762,7 +1758,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1788,7 +1784,7 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
         <v>57</v>
@@ -1814,7 +1810,7 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -1840,7 +1836,7 @@
         <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
         <v>69</v>
@@ -1866,7 +1862,7 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
         <v>73</v>
@@ -1892,7 +1888,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
@@ -1918,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -1944,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
         <v>88</v>
@@ -1970,7 +1966,7 @@
         <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s">
         <v>93</v>
@@ -1996,7 +1992,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -2022,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -2048,7 +2044,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
         <v>106</v>
@@ -2074,7 +2070,7 @@
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s">
         <v>112</v>
@@ -2100,7 +2096,7 @@
         <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E22" t="s">
         <v>118</v>
@@ -2126,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E23" t="s">
         <v>123</v>
@@ -2152,7 +2148,7 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E24" t="s">
         <v>129</v>
@@ -2178,7 +2174,7 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
         <v>135</v>
@@ -2204,7 +2200,7 @@
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E26" t="s">
         <v>140</v>
@@ -2230,7 +2226,7 @@
         <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E27" t="s">
         <v>146</v>
@@ -2256,7 +2252,7 @@
         <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
         <v>151</v>
@@ -2282,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
         <v>156</v>
@@ -2308,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -2331,7 +2327,7 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
         <v>165</v>
@@ -2357,7 +2353,7 @@
         <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E32" t="s">
         <v>170</v>
@@ -2383,7 +2379,7 @@
         <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E33" t="s">
         <v>176</v>
@@ -2409,7 +2405,7 @@
         <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E34" t="s">
         <v>182</v>
@@ -2435,7 +2431,7 @@
         <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E35" t="s">
         <v>188</v>
@@ -2461,7 +2457,7 @@
         <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" t="s">
         <v>194</v>
@@ -2487,7 +2483,7 @@
         <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E37" t="s">
         <v>199</v>
@@ -2513,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E38" t="s">
         <v>203</v>
@@ -2539,7 +2535,7 @@
         <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E39" t="s">
         <v>208</v>
@@ -2565,7 +2561,7 @@
         <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E40" t="s">
         <v>213</v>
@@ -2591,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E41" t="s">
         <v>218</v>
@@ -2617,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E42" t="s">
         <v>223</v>
@@ -2643,7 +2639,7 @@
         <v>228</v>
       </c>
       <c r="D43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E43" t="s">
         <v>229</v>
@@ -2669,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s">
         <v>234</v>
@@ -2695,7 +2691,7 @@
         <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
         <v>239</v>
@@ -2721,7 +2717,7 @@
         <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E46" t="s">
         <v>245</v>
@@ -2747,7 +2743,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
         <v>249</v>
@@ -2773,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E48" t="s">
         <v>252</v>
@@ -2799,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" t="s">
         <v>257</v>
@@ -2825,7 +2821,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E50" t="s">
         <v>261</v>
@@ -2851,7 +2847,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E51" t="s">
         <v>264</v>
@@ -2877,7 +2873,7 @@
         <v>269</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E52" t="s">
         <v>270</v>
@@ -2903,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E53" t="s">
         <v>275</v>
@@ -2929,7 +2925,7 @@
         <v>279</v>
       </c>
       <c r="D54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
         <v>280</v>
@@ -2955,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
         <v>284</v>
@@ -2981,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E56" t="s">
         <v>288</v>
@@ -3007,7 +3003,7 @@
         <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
         <v>293</v>
@@ -3033,7 +3029,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E58" t="s">
         <v>298</v>
@@ -3056,7 +3052,7 @@
         <v>302</v>
       </c>
       <c r="D59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
         <v>303</v>
@@ -3082,7 +3078,7 @@
         <v>308</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E60" t="s">
         <v>309</v>
@@ -3108,7 +3104,7 @@
         <v>314</v>
       </c>
       <c r="D61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E61" t="s">
         <v>315</v>
@@ -3134,7 +3130,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E62" t="s">
         <v>319</v>
@@ -3160,7 +3156,7 @@
         <v>322</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
         <v>323</v>
@@ -3186,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E64" t="s">
         <v>327</v>
@@ -3212,7 +3208,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E65" t="s">
         <v>330</v>
@@ -3238,7 +3234,7 @@
         <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
         <v>333</v>
@@ -3264,7 +3260,7 @@
         <v>338</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E67" t="s">
         <v>339</v>
@@ -3290,7 +3286,7 @@
         <v>344</v>
       </c>
       <c r="D68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
         <v>345</v>
@@ -3313,7 +3309,7 @@
         <v>349</v>
       </c>
       <c r="D69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E69" t="s">
         <v>350</v>
@@ -3339,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E70" t="s">
         <v>354</v>
@@ -3365,7 +3361,7 @@
         <v>357</v>
       </c>
       <c r="D71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E71" t="s">
         <v>358</v>
@@ -3391,7 +3387,7 @@
         <v>362</v>
       </c>
       <c r="D72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E72" t="s">
         <v>363</v>
